--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1666057.01715037</v>
+        <v>-1668865.794348654</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10871172.54315</v>
+        <v>10871172.54314995</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>67.13516726912584</v>
+        <v>413.0516147295368</v>
       </c>
       <c r="H2" t="n">
-        <v>316.4204908877583</v>
+        <v>316.4204908877588</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>67.1137588885308</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.462026260308477</v>
+        <v>8.462026260312115</v>
       </c>
       <c r="S2" t="n">
-        <v>157.7226091094234</v>
+        <v>157.7226091094247</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.2415595701749</v>
       </c>
       <c r="U2" t="n">
         <v>251.1655630849886</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>335.5164773876237</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.1390602878785</v>
       </c>
       <c r="H3" t="n">
-        <v>100.6029265194727</v>
+        <v>100.602926519473</v>
       </c>
       <c r="I3" t="n">
-        <v>47.92739394195241</v>
+        <v>47.92739394195348</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.3758537701777</v>
+        <v>25.37585377017963</v>
       </c>
       <c r="S3" t="n">
-        <v>149.3109129151023</v>
+        <v>149.3109129151028</v>
       </c>
       <c r="T3" t="n">
-        <v>195.309922254338</v>
+        <v>195.3099222543381</v>
       </c>
       <c r="U3" t="n">
         <v>225.8621414970714</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>27.19356357675462</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.981203174509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.8901822333929</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>133.005871552576</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121.9743859288781</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>324.6928038235829</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.0516147295367</v>
+        <v>13.05161472953678</v>
       </c>
       <c r="H5" t="n">
-        <v>316.4204908877583</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>123.6894783786285</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.462026260308477</v>
+        <v>8.462026260312115</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>157.7226091094247</v>
       </c>
       <c r="T5" t="n">
-        <v>213.2415595701747</v>
+        <v>213.2415595701749</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1655630849886</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.1390602878785</v>
       </c>
       <c r="H6" t="n">
-        <v>100.6029265194727</v>
+        <v>100.602926519473</v>
       </c>
       <c r="I6" t="n">
-        <v>47.92739394195241</v>
+        <v>47.92739394195348</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.3758537701777</v>
+        <v>25.37585377017963</v>
       </c>
       <c r="S6" t="n">
-        <v>149.3109129151023</v>
+        <v>149.3109129151028</v>
       </c>
       <c r="T6" t="n">
-        <v>195.309922254338</v>
+        <v>195.3099222543381</v>
       </c>
       <c r="U6" t="n">
         <v>225.8621414970714</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>114.2656744867693</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>117.8679482418746</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.981203174509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>21.96800391142594</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.607057521139055</v>
+        <v>1.607057521141243</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>122.2154768902699</v>
       </c>
       <c r="G8" t="n">
-        <v>139.422263977749</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.97371754307704</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>81.73016929549864</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>60.19827945150387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184363</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1819,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.8291121019625</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>69.15817284271255</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695507</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
         <v>225.7478006422472</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.18842302760497</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>213.73949968803</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695511</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128543</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U24" t="n">
         <v>225.7478006422472</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>59.96838802184875</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9586765026956</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>60.42721558712923</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>26.05480806223599</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>14.76058440587543</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440.3238044365295</v>
+        <v>857.5260330718249</v>
       </c>
       <c r="C2" t="n">
-        <v>440.3238044365295</v>
+        <v>857.5260330718249</v>
       </c>
       <c r="D2" t="n">
-        <v>440.3238044365295</v>
+        <v>857.5260330718249</v>
       </c>
       <c r="E2" t="n">
-        <v>440.3238044365295</v>
+        <v>857.5260330718249</v>
       </c>
       <c r="F2" t="n">
-        <v>440.3238044365295</v>
+        <v>857.5260330718249</v>
       </c>
       <c r="G2" t="n">
-        <v>372.5105041646852</v>
+        <v>440.3021798096665</v>
       </c>
       <c r="H2" t="n">
-        <v>52.89384670230316</v>
+        <v>120.6855223472838</v>
       </c>
       <c r="I2" t="n">
-        <v>52.89384670230316</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J2" t="n">
-        <v>230.2146704401714</v>
+        <v>230.2146704401666</v>
       </c>
       <c r="K2" t="n">
-        <v>616.7174237892621</v>
+        <v>616.7174237892499</v>
       </c>
       <c r="L2" t="n">
-        <v>1148.484893772346</v>
+        <v>1148.484893772325</v>
       </c>
       <c r="M2" t="n">
-        <v>1756.785210223677</v>
+        <v>1311.766812065741</v>
       </c>
       <c r="N2" t="n">
-        <v>1927.323009039913</v>
+        <v>1689.281882932685</v>
       </c>
       <c r="O2" t="n">
-        <v>2452.013934782122</v>
+        <v>2213.972808674885</v>
       </c>
       <c r="P2" t="n">
-        <v>2543.570396752202</v>
+        <v>2624.109991734724</v>
       </c>
       <c r="Q2" t="n">
-        <v>2644.692335115158</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R2" t="n">
         <v>2636.144833842119</v>
@@ -4358,22 +4358,22 @@
         <v>2476.829067064923</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.829067064923</v>
+        <v>2261.433552347574</v>
       </c>
       <c r="U2" t="n">
-        <v>2223.126478090187</v>
+        <v>2007.730963372838</v>
       </c>
       <c r="V2" t="n">
-        <v>1892.063590746617</v>
+        <v>2007.730963372838</v>
       </c>
       <c r="W2" t="n">
-        <v>1539.294935476503</v>
+        <v>2007.730963372838</v>
       </c>
       <c r="X2" t="n">
-        <v>1165.829177215423</v>
+        <v>1634.265205111758</v>
       </c>
       <c r="Y2" t="n">
-        <v>826.9236445006513</v>
+        <v>1244.125873135947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>969.5981276629518</v>
+        <v>969.5981276629536</v>
       </c>
       <c r="C3" t="n">
-        <v>795.1450983818248</v>
+        <v>795.1450983818266</v>
       </c>
       <c r="D3" t="n">
-        <v>646.2106887205734</v>
+        <v>646.2106887205753</v>
       </c>
       <c r="E3" t="n">
-        <v>486.9732337151179</v>
+        <v>486.9732337151197</v>
       </c>
       <c r="F3" t="n">
-        <v>340.438675742003</v>
+        <v>340.4386757420048</v>
       </c>
       <c r="G3" t="n">
-        <v>202.924473431015</v>
+        <v>202.9244734310168</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3053557345783</v>
+        <v>101.3053557345795</v>
       </c>
       <c r="I3" t="n">
-        <v>52.89384670230316</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J3" t="n">
-        <v>164.8115348683204</v>
+        <v>164.8115348683176</v>
       </c>
       <c r="K3" t="n">
-        <v>482.7175330459527</v>
+        <v>220.8969484034921</v>
       </c>
       <c r="L3" t="n">
-        <v>604.4538340690772</v>
+        <v>709.7651912770344</v>
       </c>
       <c r="M3" t="n">
-        <v>825.7254742026249</v>
+        <v>1332.230593925411</v>
       </c>
       <c r="N3" t="n">
-        <v>1480.286827143626</v>
+        <v>1986.791946866414</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.745462258213</v>
+        <v>2519.250581980994</v>
       </c>
       <c r="P3" t="n">
-        <v>2423.087391642747</v>
+        <v>2614.314370411983</v>
       </c>
       <c r="Q3" t="n">
-        <v>2644.692335115158</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R3" t="n">
-        <v>2619.060159589726</v>
+        <v>2619.060159589728</v>
       </c>
       <c r="S3" t="n">
-        <v>2468.241055635077</v>
+        <v>2468.241055635079</v>
       </c>
       <c r="T3" t="n">
-        <v>2270.95830588322</v>
+        <v>2270.958305883222</v>
       </c>
       <c r="U3" t="n">
-        <v>2042.814728613451</v>
+        <v>2042.814728613453</v>
       </c>
       <c r="V3" t="n">
-        <v>1807.662620381708</v>
+        <v>1807.66262038171</v>
       </c>
       <c r="W3" t="n">
-        <v>1553.425263653507</v>
+        <v>1553.425263653508</v>
       </c>
       <c r="X3" t="n">
-        <v>1345.573763447974</v>
+        <v>1345.573763447976</v>
       </c>
       <c r="Y3" t="n">
-        <v>1137.81346468302</v>
+        <v>1137.813464683022</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.5617286967567</v>
+        <v>227.2520402373395</v>
       </c>
       <c r="C4" t="n">
-        <v>221.5617286967567</v>
+        <v>199.7837942002136</v>
       </c>
       <c r="D4" t="n">
-        <v>221.5617286967567</v>
+        <v>199.7837942002136</v>
       </c>
       <c r="E4" t="n">
-        <v>221.5617286967567</v>
+        <v>199.7837942002136</v>
       </c>
       <c r="F4" t="n">
-        <v>221.5617286967567</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="G4" t="n">
-        <v>52.89384670230316</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="H4" t="n">
-        <v>52.89384670230316</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I4" t="n">
-        <v>52.89384670230316</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J4" t="n">
-        <v>52.89384670230316</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K4" t="n">
-        <v>146.9915064725786</v>
+        <v>146.9915064725757</v>
       </c>
       <c r="L4" t="n">
-        <v>322.9305488911185</v>
+        <v>322.9305488911118</v>
       </c>
       <c r="M4" t="n">
-        <v>518.8227237419495</v>
+        <v>518.8227237419387</v>
       </c>
       <c r="N4" t="n">
-        <v>715.4916369372202</v>
+        <v>715.4916369372054</v>
       </c>
       <c r="O4" t="n">
-        <v>881.130914544575</v>
+        <v>881.1309145445565</v>
       </c>
       <c r="P4" t="n">
-        <v>999.343249378226</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="Q4" t="n">
-        <v>999.343249378226</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="R4" t="n">
-        <v>866.1208430818696</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="S4" t="n">
-        <v>866.1208430818696</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="T4" t="n">
-        <v>866.1208430818696</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="U4" t="n">
-        <v>866.1208430818696</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="V4" t="n">
-        <v>866.1208430818696</v>
+        <v>744.6587611723174</v>
       </c>
       <c r="W4" t="n">
-        <v>576.703673044909</v>
+        <v>455.2415911353568</v>
       </c>
       <c r="X4" t="n">
-        <v>442.3543078402868</v>
+        <v>227.2520402373395</v>
       </c>
       <c r="Y4" t="n">
-        <v>221.5617286967567</v>
+        <v>227.2520402373395</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.774213421446</v>
+        <v>894.8967097775226</v>
       </c>
       <c r="C5" t="n">
-        <v>1944.774213421446</v>
+        <v>525.9341928371109</v>
       </c>
       <c r="D5" t="n">
-        <v>1586.508514814695</v>
+        <v>525.9341928371109</v>
       </c>
       <c r="E5" t="n">
-        <v>1200.720262216451</v>
+        <v>197.9616637223807</v>
       </c>
       <c r="F5" t="n">
-        <v>789.7343574268436</v>
+        <v>191.0161629731772</v>
       </c>
       <c r="G5" t="n">
-        <v>372.5105041646852</v>
+        <v>177.8327137514229</v>
       </c>
       <c r="H5" t="n">
-        <v>52.89384670230316</v>
+        <v>177.8327137514229</v>
       </c>
       <c r="I5" t="n">
-        <v>52.89384670230316</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J5" t="n">
-        <v>62.80902141981838</v>
+        <v>230.2146704401666</v>
       </c>
       <c r="K5" t="n">
-        <v>449.311774768909</v>
+        <v>295.8134653437968</v>
       </c>
       <c r="L5" t="n">
-        <v>981.0792447519932</v>
+        <v>827.5809353268719</v>
       </c>
       <c r="M5" t="n">
-        <v>1589.379561203323</v>
+        <v>1085.770628948595</v>
       </c>
       <c r="N5" t="n">
-        <v>1759.91736001956</v>
+        <v>1689.281882932685</v>
       </c>
       <c r="O5" t="n">
-        <v>2213.972808674866</v>
+        <v>2213.972808674885</v>
       </c>
       <c r="P5" t="n">
-        <v>2624.109991734714</v>
+        <v>2624.109991734724</v>
       </c>
       <c r="Q5" t="n">
-        <v>2644.692335115158</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R5" t="n">
         <v>2636.144833842119</v>
       </c>
       <c r="S5" t="n">
-        <v>2636.144833842119</v>
+        <v>2476.829067064923</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.74931912477</v>
+        <v>2261.433552347574</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.74931912477</v>
+        <v>2007.730963372838</v>
       </c>
       <c r="V5" t="n">
-        <v>2420.74931912477</v>
+        <v>2007.730963372838</v>
       </c>
       <c r="W5" t="n">
-        <v>2067.980663854656</v>
+        <v>1654.962308102724</v>
       </c>
       <c r="X5" t="n">
-        <v>2067.980663854656</v>
+        <v>1281.496549841644</v>
       </c>
       <c r="Y5" t="n">
-        <v>2067.980663854656</v>
+        <v>1281.496549841644</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969.5981276629526</v>
+        <v>969.598127662954</v>
       </c>
       <c r="C6" t="n">
-        <v>795.1450983818256</v>
+        <v>795.145098381827</v>
       </c>
       <c r="D6" t="n">
-        <v>646.2106887205744</v>
+        <v>646.2106887205757</v>
       </c>
       <c r="E6" t="n">
-        <v>486.9732337151188</v>
+        <v>486.9732337151203</v>
       </c>
       <c r="F6" t="n">
-        <v>340.4386757420037</v>
+        <v>340.4386757420052</v>
       </c>
       <c r="G6" t="n">
-        <v>202.9244734310154</v>
+        <v>202.9244734310168</v>
       </c>
       <c r="H6" t="n">
-        <v>101.3053557345783</v>
+        <v>101.3053557345795</v>
       </c>
       <c r="I6" t="n">
-        <v>52.89384670230316</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J6" t="n">
-        <v>164.8115348683204</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K6" t="n">
-        <v>482.7175330459527</v>
+        <v>108.9792602374777</v>
       </c>
       <c r="L6" t="n">
-        <v>971.5857759195018</v>
+        <v>597.8475031110202</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.625685145078</v>
+        <v>1220.312905759397</v>
       </c>
       <c r="N6" t="n">
-        <v>2078.187038086079</v>
+        <v>1874.874258700399</v>
       </c>
       <c r="O6" t="n">
-        <v>2220.721977116704</v>
+        <v>2407.332893814979</v>
       </c>
       <c r="P6" t="n">
-        <v>2631.063906501237</v>
+        <v>2631.063906501245</v>
       </c>
       <c r="Q6" t="n">
-        <v>2644.692335115158</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R6" t="n">
-        <v>2619.060159589726</v>
+        <v>2619.060159589728</v>
       </c>
       <c r="S6" t="n">
-        <v>2468.241055635077</v>
+        <v>2468.241055635079</v>
       </c>
       <c r="T6" t="n">
-        <v>2270.95830588322</v>
+        <v>2270.958305883222</v>
       </c>
       <c r="U6" t="n">
-        <v>2042.814728613452</v>
+        <v>2042.814728613453</v>
       </c>
       <c r="V6" t="n">
-        <v>1807.662620381709</v>
+        <v>1807.66262038171</v>
       </c>
       <c r="W6" t="n">
-        <v>1553.425263653507</v>
+        <v>1553.425263653509</v>
       </c>
       <c r="X6" t="n">
-        <v>1345.573763447974</v>
+        <v>1345.573763447976</v>
       </c>
       <c r="Y6" t="n">
-        <v>1137.813464683021</v>
+        <v>1137.813464683022</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>487.5102097723424</v>
+        <v>487.5102097723183</v>
       </c>
       <c r="C7" t="n">
-        <v>372.0903365533835</v>
+        <v>487.5102097723183</v>
       </c>
       <c r="D7" t="n">
-        <v>221.9736971410478</v>
+        <v>487.5102097723183</v>
       </c>
       <c r="E7" t="n">
-        <v>221.9736971410478</v>
+        <v>368.4516761946671</v>
       </c>
       <c r="F7" t="n">
-        <v>75.08374964313744</v>
+        <v>221.5617286967568</v>
       </c>
       <c r="G7" t="n">
-        <v>75.08374964313744</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="H7" t="n">
-        <v>75.08374964313744</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I7" t="n">
-        <v>75.08374964313744</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J7" t="n">
-        <v>52.89384670230316</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K7" t="n">
-        <v>146.9915064725786</v>
+        <v>146.9915064725757</v>
       </c>
       <c r="L7" t="n">
-        <v>322.9305488911185</v>
+        <v>322.9305488911118</v>
       </c>
       <c r="M7" t="n">
-        <v>518.8227237419495</v>
+        <v>518.8227237419387</v>
       </c>
       <c r="N7" t="n">
-        <v>715.4916369372202</v>
+        <v>715.4916369372054</v>
       </c>
       <c r="O7" t="n">
-        <v>881.130914544575</v>
+        <v>881.1309145445565</v>
       </c>
       <c r="P7" t="n">
-        <v>999.343249378226</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="Q7" t="n">
-        <v>997.7199589528331</v>
+        <v>997.7199589528091</v>
       </c>
       <c r="R7" t="n">
-        <v>997.7199589528331</v>
+        <v>997.7199589528091</v>
       </c>
       <c r="S7" t="n">
-        <v>997.7199589528331</v>
+        <v>997.7199589528091</v>
       </c>
       <c r="T7" t="n">
-        <v>997.7199589528331</v>
+        <v>997.7199589528091</v>
       </c>
       <c r="U7" t="n">
-        <v>997.7199589528331</v>
+        <v>997.7199589528091</v>
       </c>
       <c r="V7" t="n">
-        <v>997.7199589528331</v>
+        <v>997.7199589528091</v>
       </c>
       <c r="W7" t="n">
-        <v>708.3027889158725</v>
+        <v>708.3027889158484</v>
       </c>
       <c r="X7" t="n">
-        <v>708.3027889158725</v>
+        <v>708.3027889158484</v>
       </c>
       <c r="Y7" t="n">
-        <v>487.5102097723424</v>
+        <v>487.5102097723183</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.461090705061</v>
+        <v>1280.617237290616</v>
       </c>
       <c r="C8" t="n">
-        <v>990.4985737646489</v>
+        <v>911.6547203502046</v>
       </c>
       <c r="D8" t="n">
-        <v>990.4985737646489</v>
+        <v>911.6547203502046</v>
       </c>
       <c r="E8" t="n">
-        <v>604.7103211664046</v>
+        <v>911.6547203502046</v>
       </c>
       <c r="F8" t="n">
-        <v>193.724416376797</v>
+        <v>788.2047436933663</v>
       </c>
       <c r="G8" t="n">
-        <v>52.89384670230312</v>
+        <v>371.1169619297937</v>
       </c>
       <c r="H8" t="n">
-        <v>52.89384670230312</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I8" t="n">
-        <v>52.89384670230312</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J8" t="n">
-        <v>74.12809669568641</v>
+        <v>241.5337457160396</v>
       </c>
       <c r="K8" t="n">
-        <v>477.5952097157319</v>
+        <v>645.0008587360851</v>
       </c>
       <c r="L8" t="n">
-        <v>616.923865556985</v>
+        <v>1042.006497516499</v>
       </c>
       <c r="M8" t="n">
-        <v>1248.641676540297</v>
+        <v>1228.705910341907</v>
       </c>
       <c r="N8" t="n">
-        <v>1442.975889432279</v>
+        <v>1423.040123233889</v>
       </c>
       <c r="O8" t="n">
-        <v>1990.137094199357</v>
+        <v>1970.201328000966</v>
       </c>
       <c r="P8" t="n">
-        <v>2399.516374340255</v>
+        <v>2399.516374340261</v>
       </c>
       <c r="Q8" t="n">
-        <v>2644.692335115156</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R8" t="n">
-        <v>2644.692335115156</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="S8" t="n">
-        <v>2644.692335115156</v>
+        <v>2488.47729761199</v>
       </c>
       <c r="T8" t="n">
-        <v>2429.892473382867</v>
+        <v>2273.677435879701</v>
       </c>
       <c r="U8" t="n">
-        <v>2429.892473382867</v>
+        <v>2019.985732624852</v>
       </c>
       <c r="V8" t="n">
-        <v>2098.829586039296</v>
+        <v>2019.985732624852</v>
       </c>
       <c r="W8" t="n">
-        <v>1746.060930769182</v>
+        <v>1667.217077354738</v>
       </c>
       <c r="X8" t="n">
-        <v>1746.060930769182</v>
+        <v>1667.217077354738</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.060930769182</v>
+        <v>1667.217077354738</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>642.9280921865306</v>
       </c>
       <c r="E9" t="n">
-        <v>483.6906371810751</v>
+        <v>483.6906371810752</v>
       </c>
       <c r="F9" t="n">
-        <v>337.1560792079601</v>
+        <v>337.1560792079602</v>
       </c>
       <c r="G9" t="n">
-        <v>199.714681567182</v>
+        <v>199.7146815671821</v>
       </c>
       <c r="H9" t="n">
-        <v>98.79870371198663</v>
+        <v>98.79870371198675</v>
       </c>
       <c r="I9" t="n">
-        <v>52.89384670230312</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J9" t="n">
-        <v>171.5530985591988</v>
+        <v>171.5530985591989</v>
       </c>
       <c r="K9" t="n">
-        <v>500.9815028650087</v>
+        <v>500.9815028650088</v>
       </c>
       <c r="L9" t="n">
         <v>1005.343042731127</v>
       </c>
       <c r="M9" t="n">
-        <v>1645.888392198232</v>
+        <v>1232.46492919664</v>
       </c>
       <c r="N9" t="n">
-        <v>2300.449745139233</v>
+        <v>1431.121670849305</v>
       </c>
       <c r="O9" t="n">
-        <v>2459.962057807994</v>
+        <v>1980.557679602028</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.651685335293</v>
+        <v>2404.525448082865</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.238904143333</v>
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>412.1408177005598</v>
+        <v>200.8069402846963</v>
       </c>
       <c r="C10" t="n">
-        <v>243.2046347726528</v>
+        <v>200.8069402846963</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8069402846962</v>
+        <v>200.8069402846963</v>
       </c>
       <c r="E10" t="n">
-        <v>52.89384670230312</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="F10" t="n">
-        <v>52.89384670230312</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="G10" t="n">
-        <v>52.89384670230312</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="H10" t="n">
-        <v>52.89384670230312</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I10" t="n">
-        <v>52.89384670230312</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J10" t="n">
-        <v>52.89384670230312</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K10" t="n">
-        <v>153.9417762979129</v>
+        <v>153.9417762979131</v>
       </c>
       <c r="L10" t="n">
-        <v>338.7747711987313</v>
+        <v>338.7747711987315</v>
       </c>
       <c r="M10" t="n">
-        <v>544.0443719179692</v>
+        <v>544.0443719179694</v>
       </c>
       <c r="N10" t="n">
-        <v>749.8677367540736</v>
+        <v>749.8677367540738</v>
       </c>
       <c r="O10" t="n">
-        <v>923.9626321426724</v>
+        <v>923.9626321426726</v>
       </c>
       <c r="P10" t="n">
         <v>1049.410208741288</v>
@@ -4984,28 +4984,28 @@
         <v>1052.828528161648</v>
       </c>
       <c r="R10" t="n">
-        <v>922.3505668810506</v>
+        <v>1052.828528161648</v>
       </c>
       <c r="S10" t="n">
-        <v>922.3505668810506</v>
+        <v>970.2728016005384</v>
       </c>
       <c r="T10" t="n">
-        <v>922.3505668810506</v>
+        <v>744.6436049129034</v>
       </c>
       <c r="U10" t="n">
-        <v>922.3505668810506</v>
+        <v>455.4914284905832</v>
       </c>
       <c r="V10" t="n">
-        <v>922.3505668810506</v>
+        <v>200.8069402846963</v>
       </c>
       <c r="W10" t="n">
-        <v>632.9333968440899</v>
+        <v>200.8069402846963</v>
       </c>
       <c r="X10" t="n">
-        <v>632.9333968440899</v>
+        <v>200.8069402846963</v>
       </c>
       <c r="Y10" t="n">
-        <v>412.1408177005598</v>
+        <v>200.8069402846963</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>94.56320294380259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>545.3854261579738</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>917.5010142286973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>767.3843748163615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>619.4712812339684</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>472.581333736058</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>305.385234450938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>163.6734032931361</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5777,10 +5777,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5817,40 +5817,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273922</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803944</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803944</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096618</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636215</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190823</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190823</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685892</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179126</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5477693179126</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4311299055769</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>612.4311299055769</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>465.5411824076665</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>298.3450831225464</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>156.6332519647446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235169</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.50678425811</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602308</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396421</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.32989935946</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614428</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179126</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192626</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075827</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014783</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355943</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068017</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694715</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852264</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.463305575627</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841055</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998652</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.528408326418</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.528408326418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565706</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703146</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C25" t="n">
-        <v>695.5020655703146</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>545.3854261579788</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429801</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003835</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797756</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510512</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.38585385471</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648823</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611862</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138447</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703146</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>526.5658826424041</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E28" t="n">
-        <v>378.6527890600109</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>378.6527890600109</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961522</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778176</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U31" t="n">
-        <v>1962.551399292452</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V31" t="n">
-        <v>1707.866911086565</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W31" t="n">
-        <v>1418.449741049605</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.460190151587</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>969.6676110080573</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6865,7 +6865,7 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6895,7 +6895,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7403,46 +7403,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,13 +7549,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345474</v>
@@ -7564,31 +7564,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7634,61 +7634,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7985,19 +7985,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>209.0679515663817</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>81.35312624496109</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>60.45883898753834</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.2556368694824</v>
+        <v>479.2556368694916</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>16.91872332248673</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>95.86643972556229</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>309.4512145082978</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>13.04286547574793</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>293.5581006966576</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.2556368694824</v>
+        <v>479.2556368694916</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>129.9668931871479</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>260.2797807466272</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>301.6615705973452</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>460.5097083720569</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.29320970309374</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.159605744760484e-11</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.265477274311706e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>56.57571949009767</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.2415595701747</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>244.1243218443924</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.72146126842988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.2493442537773</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.0837511408424</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21.96800391142594</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.607057521139055</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.4189530857754</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>92.70378383646118</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>107.048541647124</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>86.46557462472555</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>65.7555412501323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>12.10766347585297</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>19.07741329096044</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>4.845153664064782</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>86.46557462472042</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459311</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>105.0969227051396</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>40.32043864788569</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1140727.786639941</v>
+        <v>1140727.786639943</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1371180.916699135</v>
+        <v>1371180.916699137</v>
       </c>
     </row>
     <row r="4">
@@ -26314,7 +26314,7 @@
         <v>101551.2845365931</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
@@ -26341,7 +26341,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>761165.5885788921</v>
+        <v>761165.5885788784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>28697.84000520292</v>
+        <v>28697.84000521543</v>
       </c>
       <c r="E3" t="n">
-        <v>774968.299696813</v>
+        <v>774968.2996968124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.715271960635838e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172991.9703322174</v>
+        <v>172991.970332218</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>127476.6190575755</v>
+        <v>127476.6190575751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107154.1262506713</v>
+        <v>107154.1262506738</v>
       </c>
       <c r="C4" t="n">
-        <v>189363.538187809</v>
+        <v>189363.5381878113</v>
       </c>
       <c r="D4" t="n">
-        <v>183702.0609696331</v>
+        <v>183702.0609696329</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694985</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695008</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531694844</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531694886</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.480531695077</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695155</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478857</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86034.19957935374</v>
+        <v>86034.1995793535</v>
       </c>
       <c r="C5" t="n">
-        <v>86034.19957935374</v>
+        <v>86034.1995793535</v>
       </c>
       <c r="D5" t="n">
-        <v>86764.70248112018</v>
+        <v>86764.70248112027</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26485,10 +26485,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852802.6298723242</v>
+        <v>-853162.71288803</v>
       </c>
       <c r="C6" t="n">
-        <v>-152241.4722875202</v>
+        <v>-152241.4722875222</v>
       </c>
       <c r="D6" t="n">
-        <v>-176008.3379763137</v>
+        <v>-176008.3379763261</v>
       </c>
       <c r="E6" t="n">
-        <v>-761306.3200989142</v>
+        <v>-761341.0580243493</v>
       </c>
       <c r="F6" t="n">
-        <v>13661.97959789875</v>
+        <v>13627.24167246307</v>
       </c>
       <c r="G6" t="n">
-        <v>13661.97959789862</v>
+        <v>13627.24167246306</v>
       </c>
       <c r="H6" t="n">
-        <v>13661.97959789712</v>
+        <v>13627.241672463</v>
       </c>
       <c r="I6" t="n">
-        <v>13661.97959789883</v>
+        <v>13627.24167246305</v>
       </c>
       <c r="J6" t="n">
-        <v>-159329.9907343187</v>
+        <v>-159364.728659755</v>
       </c>
       <c r="K6" t="n">
-        <v>13661.9795978988</v>
+        <v>13627.24167246306</v>
       </c>
       <c r="L6" t="n">
-        <v>-13713.90816269332</v>
+        <v>-13713.90816269319</v>
       </c>
       <c r="M6" t="n">
-        <v>-121762.8092266369</v>
+        <v>-121762.8092266365</v>
       </c>
       <c r="N6" t="n">
-        <v>5713.809830938582</v>
+        <v>5713.809830938611</v>
       </c>
       <c r="O6" t="n">
-        <v>5713.809830938597</v>
+        <v>5713.809830938568</v>
       </c>
       <c r="P6" t="n">
-        <v>5713.809830938568</v>
+        <v>5713.809830938539</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175849</v>
+        <v>559.9667929175705</v>
       </c>
       <c r="C3" t="n">
-        <v>559.9667929175849</v>
+        <v>559.9667929175705</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26753,10 +26753,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787894</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="C4" t="n">
-        <v>661.1730837787894</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="D4" t="n">
-        <v>661.173083778789</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175849</v>
+        <v>559.9667929175705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.50930742048013</v>
+        <v>33.50930742049457</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787894</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>511.5352043208596</v>
+        <v>511.5352043208579</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.173083778789</v>
+        <v>661.1730837787909</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.5352043208596</v>
+        <v>511.5352043208578</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.1730837787894</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.5352043208596</v>
+        <v>511.5352043208579</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>345.9164474604108</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>123.6894783786262</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>105.1166468730206</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>140.0532575218732</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.981203174509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.2493442537775</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.0837511408431</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.96800391142777</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.607057521141243</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>131.890182233394</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.4189530857758</v>
       </c>
       <c r="T4" t="n">
-        <v>223.631091187769</v>
+        <v>223.6310911877691</v>
       </c>
       <c r="U4" t="n">
         <v>286.2639506555482</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>260.7594557346025</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>57.23756624867883</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>316.4204908877588</v>
       </c>
       <c r="I5" t="n">
-        <v>123.6894783786262</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>157.7226091094234</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1655630849886</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>52.98114661185858</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>28.56601440469456</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.981203174509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.2493442537773</v>
+        <v>153.2493442537775</v>
       </c>
       <c r="I7" t="n">
-        <v>125.0837511408424</v>
+        <v>125.0837511408431</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>21.96800391142777</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>131.8901822333929</v>
+        <v>131.890182233394</v>
       </c>
       <c r="S7" t="n">
-        <v>206.4189530857754</v>
+        <v>206.4189530857758</v>
       </c>
       <c r="T7" t="n">
-        <v>223.631091187769</v>
+        <v>223.6310911877691</v>
       </c>
       <c r="U7" t="n">
         <v>286.2639506555482</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>284.6605688514415</v>
       </c>
       <c r="G8" t="n">
-        <v>273.4946399681878</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>106.6417554751353</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>123.63571260462</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.25112278559833</v>
+        <v>2.251122785598272</v>
       </c>
       <c r="H2" t="n">
-        <v>23.0543112280089</v>
+        <v>23.05431122800831</v>
       </c>
       <c r="I2" t="n">
-        <v>86.78641119177969</v>
+        <v>86.78641119177745</v>
       </c>
       <c r="J2" t="n">
-        <v>191.0612325241764</v>
+        <v>191.0612325241715</v>
       </c>
       <c r="K2" t="n">
-        <v>286.3512600385538</v>
+        <v>286.3512600385464</v>
       </c>
       <c r="L2" t="n">
-        <v>355.2440589883087</v>
+        <v>355.2440589882996</v>
       </c>
       <c r="M2" t="n">
-        <v>395.277463826693</v>
+        <v>395.2774638266828</v>
       </c>
       <c r="N2" t="n">
-        <v>401.6734664412743</v>
+        <v>401.6734664412639</v>
       </c>
       <c r="O2" t="n">
-        <v>379.2888642419809</v>
+        <v>379.2888642419711</v>
       </c>
       <c r="P2" t="n">
-        <v>323.7142704725221</v>
+        <v>323.7142704725137</v>
       </c>
       <c r="Q2" t="n">
-        <v>243.0959357132818</v>
+        <v>243.0959357132755</v>
       </c>
       <c r="R2" t="n">
-        <v>141.4070916808412</v>
+        <v>141.4070916808376</v>
       </c>
       <c r="S2" t="n">
-        <v>51.29746047682199</v>
+        <v>51.29746047682067</v>
       </c>
       <c r="T2" t="n">
-        <v>9.854289993956693</v>
+        <v>9.854289993956439</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1800898228478663</v>
+        <v>0.1800898228478617</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.204456875332164</v>
+        <v>1.204456875332133</v>
       </c>
       <c r="H3" t="n">
-        <v>11.6325177170238</v>
+        <v>11.63251771702349</v>
       </c>
       <c r="I3" t="n">
-        <v>41.46923890946267</v>
+        <v>41.46923890946159</v>
       </c>
       <c r="J3" t="n">
-        <v>113.7947611909217</v>
+        <v>113.7947611909188</v>
       </c>
       <c r="K3" t="n">
-        <v>194.4933718381767</v>
+        <v>194.4933718381716</v>
       </c>
       <c r="L3" t="n">
-        <v>261.5203404092929</v>
+        <v>261.5203404092861</v>
       </c>
       <c r="M3" t="n">
-        <v>305.1819021400838</v>
+        <v>305.1819021400759</v>
       </c>
       <c r="N3" t="n">
-        <v>313.2591589926403</v>
+        <v>313.2591589926322</v>
       </c>
       <c r="O3" t="n">
-        <v>286.5709303339644</v>
+        <v>286.5709303339571</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9984361325077</v>
+        <v>229.9984361325018</v>
       </c>
       <c r="Q3" t="n">
-        <v>153.747863595032</v>
+        <v>153.7478635950281</v>
       </c>
       <c r="R3" t="n">
-        <v>74.78198038246543</v>
+        <v>74.7819803824635</v>
       </c>
       <c r="S3" t="n">
-        <v>22.37225818873557</v>
+        <v>22.372258188735</v>
       </c>
       <c r="T3" t="n">
-        <v>4.854806440483588</v>
+        <v>4.854806440483463</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07924058390343186</v>
+        <v>0.07924058390342982</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.009776183949743</v>
+        <v>1.009776183949717</v>
       </c>
       <c r="H4" t="n">
-        <v>8.977828253662269</v>
+        <v>8.977828253662038</v>
       </c>
       <c r="I4" t="n">
-        <v>30.36672378641592</v>
+        <v>30.36672378641514</v>
       </c>
       <c r="J4" t="n">
-        <v>71.39117620524684</v>
+        <v>71.391176205245</v>
       </c>
       <c r="K4" t="n">
-        <v>117.3176330079792</v>
+        <v>117.3176330079762</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1261792028555</v>
+        <v>150.1261792028516</v>
       </c>
       <c r="M4" t="n">
-        <v>158.2870067258675</v>
+        <v>158.2870067258634</v>
       </c>
       <c r="N4" t="n">
-        <v>154.5232954947822</v>
+        <v>154.5232954947782</v>
       </c>
       <c r="O4" t="n">
-        <v>142.727273709551</v>
+        <v>142.7272737095473</v>
       </c>
       <c r="P4" t="n">
-        <v>122.1278395569762</v>
+        <v>122.127839556973</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.55498573055533</v>
+        <v>84.55498573055314</v>
       </c>
       <c r="R4" t="n">
-        <v>45.40320914377663</v>
+        <v>45.40320914377546</v>
       </c>
       <c r="S4" t="n">
-        <v>17.59764495119688</v>
+        <v>17.59764495119643</v>
       </c>
       <c r="T4" t="n">
-        <v>4.314498240512538</v>
+        <v>4.314498240512427</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05507870094271333</v>
+        <v>0.05507870094271191</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.25112278559833</v>
+        <v>2.251122785598272</v>
       </c>
       <c r="H5" t="n">
-        <v>23.0543112280089</v>
+        <v>23.05431122800831</v>
       </c>
       <c r="I5" t="n">
-        <v>86.78641119177969</v>
+        <v>86.78641119177745</v>
       </c>
       <c r="J5" t="n">
-        <v>191.0612325241764</v>
+        <v>191.0612325241715</v>
       </c>
       <c r="K5" t="n">
-        <v>286.3512600385538</v>
+        <v>286.3512600385464</v>
       </c>
       <c r="L5" t="n">
-        <v>355.2440589883087</v>
+        <v>355.2440589882996</v>
       </c>
       <c r="M5" t="n">
-        <v>395.277463826693</v>
+        <v>395.2774638266828</v>
       </c>
       <c r="N5" t="n">
-        <v>401.6734664412743</v>
+        <v>401.6734664412639</v>
       </c>
       <c r="O5" t="n">
-        <v>379.2888642419809</v>
+        <v>379.2888642419711</v>
       </c>
       <c r="P5" t="n">
-        <v>323.7142704725221</v>
+        <v>323.7142704725137</v>
       </c>
       <c r="Q5" t="n">
-        <v>243.0959357132818</v>
+        <v>243.0959357132755</v>
       </c>
       <c r="R5" t="n">
-        <v>141.4070916808412</v>
+        <v>141.4070916808376</v>
       </c>
       <c r="S5" t="n">
-        <v>51.29746047682199</v>
+        <v>51.29746047682067</v>
       </c>
       <c r="T5" t="n">
-        <v>9.854289993956693</v>
+        <v>9.854289993956439</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1800898228478663</v>
+        <v>0.1800898228478617</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.204456875332164</v>
+        <v>1.204456875332133</v>
       </c>
       <c r="H6" t="n">
-        <v>11.6325177170238</v>
+        <v>11.63251771702349</v>
       </c>
       <c r="I6" t="n">
-        <v>41.46923890946267</v>
+        <v>41.46923890946159</v>
       </c>
       <c r="J6" t="n">
-        <v>113.7947611909217</v>
+        <v>113.7947611909188</v>
       </c>
       <c r="K6" t="n">
-        <v>194.4933718381767</v>
+        <v>194.4933718381716</v>
       </c>
       <c r="L6" t="n">
-        <v>261.5203404092929</v>
+        <v>261.5203404092861</v>
       </c>
       <c r="M6" t="n">
-        <v>305.1819021400838</v>
+        <v>305.1819021400759</v>
       </c>
       <c r="N6" t="n">
-        <v>313.2591589926403</v>
+        <v>313.2591589926322</v>
       </c>
       <c r="O6" t="n">
-        <v>286.5709303339644</v>
+        <v>286.5709303339571</v>
       </c>
       <c r="P6" t="n">
-        <v>229.9984361325077</v>
+        <v>229.9984361325018</v>
       </c>
       <c r="Q6" t="n">
-        <v>153.747863595032</v>
+        <v>153.7478635950281</v>
       </c>
       <c r="R6" t="n">
-        <v>74.78198038246543</v>
+        <v>74.7819803824635</v>
       </c>
       <c r="S6" t="n">
-        <v>22.37225818873557</v>
+        <v>22.372258188735</v>
       </c>
       <c r="T6" t="n">
-        <v>4.854806440483588</v>
+        <v>4.854806440483463</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07924058390343186</v>
+        <v>0.07924058390342982</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.009776183949743</v>
+        <v>1.009776183949717</v>
       </c>
       <c r="H7" t="n">
-        <v>8.977828253662269</v>
+        <v>8.977828253662038</v>
       </c>
       <c r="I7" t="n">
-        <v>30.36672378641592</v>
+        <v>30.36672378641514</v>
       </c>
       <c r="J7" t="n">
-        <v>71.39117620524684</v>
+        <v>71.391176205245</v>
       </c>
       <c r="K7" t="n">
-        <v>117.3176330079792</v>
+        <v>117.3176330079762</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1261792028555</v>
+        <v>150.1261792028516</v>
       </c>
       <c r="M7" t="n">
-        <v>158.2870067258675</v>
+        <v>158.2870067258634</v>
       </c>
       <c r="N7" t="n">
-        <v>154.5232954947822</v>
+        <v>154.5232954947782</v>
       </c>
       <c r="O7" t="n">
-        <v>142.727273709551</v>
+        <v>142.7272737095473</v>
       </c>
       <c r="P7" t="n">
-        <v>122.1278395569762</v>
+        <v>122.127839556973</v>
       </c>
       <c r="Q7" t="n">
-        <v>84.55498573055533</v>
+        <v>84.55498573055314</v>
       </c>
       <c r="R7" t="n">
-        <v>45.40320914377663</v>
+        <v>45.40320914377546</v>
       </c>
       <c r="S7" t="n">
-        <v>17.59764495119688</v>
+        <v>17.59764495119643</v>
       </c>
       <c r="T7" t="n">
-        <v>4.314498240512538</v>
+        <v>4.314498240512427</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05507870094271333</v>
+        <v>0.05507870094271191</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>100.2764607028593</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162576</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292903</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659455</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521105</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007751</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>568.8264345569119</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862134</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214708</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485297</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121574</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348441</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135349</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663289</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817586</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162574</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175689</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.271511415944</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460042</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236518</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669232</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043731</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292902</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651531</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078752</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659454</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521104</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420759</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>381.6404378718121</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473082</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862132</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437253</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214707</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742447</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275957</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189907</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121573</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869286</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796264</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355182</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588159</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392051</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106794</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920063</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417319</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.564300551593</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532773</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,16 +33029,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>235.5705495535876</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N30" t="n">
-        <v>764.2478901092634</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>608.2694430035896</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>556.5325452335035</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>179.1119431695639</v>
+        <v>179.111943169559</v>
       </c>
       <c r="K2" t="n">
-        <v>390.406821564738</v>
+        <v>390.4068215647306</v>
       </c>
       <c r="L2" t="n">
-        <v>537.1388585687719</v>
+        <v>537.1388585687628</v>
       </c>
       <c r="M2" t="n">
-        <v>614.4447640922527</v>
+        <v>164.9312305994101</v>
       </c>
       <c r="N2" t="n">
-        <v>172.2604028446834</v>
+        <v>381.3283544110547</v>
       </c>
       <c r="O2" t="n">
-        <v>529.9908340830395</v>
+        <v>529.9908340830298</v>
       </c>
       <c r="P2" t="n">
-        <v>92.48127471725252</v>
+        <v>414.2799828887268</v>
       </c>
       <c r="Q2" t="n">
-        <v>102.1433720837934</v>
+        <v>20.79024583882605</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>113.0481698646638</v>
+        <v>113.0481698646609</v>
       </c>
       <c r="K3" t="n">
-        <v>321.1171698763962</v>
+        <v>56.65193286381265</v>
       </c>
       <c r="L3" t="n">
-        <v>122.9659606294187</v>
+        <v>493.8063059328711</v>
       </c>
       <c r="M3" t="n">
-        <v>223.5067072056038</v>
+        <v>628.7529319680575</v>
       </c>
       <c r="N3" t="n">
-        <v>661.1730837787894</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="O3" t="n">
-        <v>537.8370051662496</v>
+        <v>537.8370051662421</v>
       </c>
       <c r="P3" t="n">
-        <v>414.4867973581146</v>
+        <v>96.02402871817151</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.8433772448596</v>
+        <v>30.68481283149328</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>95.04814118209639</v>
+        <v>95.04814118209336</v>
       </c>
       <c r="L4" t="n">
-        <v>177.7162044631716</v>
+        <v>177.7162044631677</v>
       </c>
       <c r="M4" t="n">
-        <v>197.870883687708</v>
+        <v>197.870883687704</v>
       </c>
       <c r="N4" t="n">
-        <v>198.6554678740108</v>
+        <v>198.6554678740068</v>
       </c>
       <c r="O4" t="n">
-        <v>167.3124016235907</v>
+        <v>167.312401623587</v>
       </c>
       <c r="P4" t="n">
-        <v>119.4063988218697</v>
+        <v>119.4063988218665</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.01532799749012</v>
+        <v>179.111943169559</v>
       </c>
       <c r="K5" t="n">
-        <v>390.406821564738</v>
+        <v>66.26140899356585</v>
       </c>
       <c r="L5" t="n">
-        <v>537.1388585687719</v>
+        <v>537.1388585687628</v>
       </c>
       <c r="M5" t="n">
-        <v>614.4447640922527</v>
+        <v>260.7976703249724</v>
       </c>
       <c r="N5" t="n">
-        <v>172.2604028446834</v>
+        <v>609.6073272566572</v>
       </c>
       <c r="O5" t="n">
-        <v>458.641867328592</v>
+        <v>529.9908340830298</v>
       </c>
       <c r="P5" t="n">
-        <v>414.2799828887352</v>
+        <v>414.2799828887268</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.79024583883231</v>
+        <v>20.79024583882605</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>113.0481698646638</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>321.1171698763962</v>
+        <v>56.65193286381265</v>
       </c>
       <c r="L6" t="n">
-        <v>493.8063059328779</v>
+        <v>493.8063059328711</v>
       </c>
       <c r="M6" t="n">
-        <v>456.605968914723</v>
+        <v>628.7529319680575</v>
       </c>
       <c r="N6" t="n">
-        <v>661.1730837787894</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="O6" t="n">
-        <v>143.97468588952</v>
+        <v>537.8370051662421</v>
       </c>
       <c r="P6" t="n">
-        <v>414.4867973581146</v>
+        <v>225.9909219053194</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.7660895090105</v>
+        <v>13.76608950900655</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>95.04814118209639</v>
+        <v>95.04814118209336</v>
       </c>
       <c r="L7" t="n">
-        <v>177.7162044631716</v>
+        <v>177.7162044631677</v>
       </c>
       <c r="M7" t="n">
-        <v>197.870883687708</v>
+        <v>197.870883687704</v>
       </c>
       <c r="N7" t="n">
-        <v>198.6554678740108</v>
+        <v>198.6554678740068</v>
       </c>
       <c r="O7" t="n">
-        <v>167.3124016235907</v>
+        <v>167.312401623587</v>
       </c>
       <c r="P7" t="n">
-        <v>119.4063988218697</v>
+        <v>119.4063988218665</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>401.015796747893</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35188,7 +35188,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>413.5144243847458</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>661.173083778789</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.25981697781796</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7540807028593007</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367782</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462703</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902966</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243061</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7852396007751</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>430.2720547770377</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641952</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071406</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625082</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096355</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317568</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396427</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036778</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462701</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902962</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193532</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243174</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683822</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924737</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902317</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754092</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>243.7989988974531</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167434</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641949</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992809</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071404</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295364</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096354</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.342014319132</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010457</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.626132989908</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060459</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066254</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>92.97430510914316</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N30" t="n">
-        <v>632.9061780259301</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>469.7150632237154</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>425.1908331501702</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
